--- a/kqxs.xlsx
+++ b/kqxs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="177">
   <si>
     <t>Region</t>
   </si>
@@ -32,406 +32,517 @@
     <t>Miền Bắc</t>
   </si>
   <si>
-    <t>Hải Phòng</t>
+    <t>Nam Định</t>
   </si>
   <si>
     <t>Giải ĐB</t>
   </si>
   <si>
-    <t>36904</t>
-  </si>
-  <si>
-    <t>15-12-2023</t>
+    <t>74825</t>
+  </si>
+  <si>
+    <t>16-12-2023</t>
   </si>
   <si>
     <t>Giải nhất</t>
   </si>
   <si>
-    <t>34735</t>
+    <t>27434</t>
   </si>
   <si>
     <t>Giải nhì</t>
   </si>
   <si>
-    <t>42033</t>
-  </si>
-  <si>
-    <t>38294</t>
+    <t>06579</t>
+  </si>
+  <si>
+    <t>72188</t>
   </si>
   <si>
     <t>Giải ba</t>
   </si>
   <si>
-    <t>20473</t>
-  </si>
-  <si>
-    <t>82204</t>
-  </si>
-  <si>
-    <t>45516</t>
-  </si>
-  <si>
-    <t>49864</t>
-  </si>
-  <si>
-    <t>93509</t>
-  </si>
-  <si>
-    <t>66033</t>
+    <t>23116</t>
+  </si>
+  <si>
+    <t>29833</t>
+  </si>
+  <si>
+    <t>95690</t>
+  </si>
+  <si>
+    <t>82114</t>
+  </si>
+  <si>
+    <t>32305</t>
+  </si>
+  <si>
+    <t>85706</t>
   </si>
   <si>
     <t>Giải tư</t>
   </si>
   <si>
-    <t>8906</t>
-  </si>
-  <si>
-    <t>8147</t>
-  </si>
-  <si>
-    <t>9572</t>
-  </si>
-  <si>
-    <t>2463</t>
+    <t>7725</t>
+  </si>
+  <si>
+    <t>7756</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>7069</t>
   </si>
   <si>
     <t>Giải năm</t>
   </si>
   <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>5312</t>
-  </si>
-  <si>
-    <t>8432</t>
-  </si>
-  <si>
-    <t>6273</t>
-  </si>
-  <si>
-    <t>8809</t>
-  </si>
-  <si>
-    <t>2106</t>
+    <t>5389</t>
+  </si>
+  <si>
+    <t>7771</t>
+  </si>
+  <si>
+    <t>7486</t>
+  </si>
+  <si>
+    <t>9371</t>
+  </si>
+  <si>
+    <t>8494</t>
+  </si>
+  <si>
+    <t>5009</t>
   </si>
   <si>
     <t>Giải sáu</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>076</t>
+    <t>478</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>881</t>
   </si>
   <si>
     <t>Giải bảy</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>Miền Trung</t>
   </si>
   <si>
-    <t>Gia Lai</t>
+    <t>Đà Nẵng</t>
   </si>
   <si>
     <t>Giải tám</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>7654</t>
-  </si>
-  <si>
-    <t>6963</t>
-  </si>
-  <si>
-    <t>72070</t>
-  </si>
-  <si>
-    <t>00444</t>
-  </si>
-  <si>
-    <t>68194</t>
-  </si>
-  <si>
-    <t>16492</t>
-  </si>
-  <si>
-    <t>63883</t>
-  </si>
-  <si>
-    <t>44700</t>
-  </si>
-  <si>
-    <t>80521</t>
-  </si>
-  <si>
-    <t>26540</t>
-  </si>
-  <si>
-    <t>29524</t>
-  </si>
-  <si>
-    <t>91901</t>
-  </si>
-  <si>
-    <t>07428</t>
-  </si>
-  <si>
-    <t>449058</t>
-  </si>
-  <si>
-    <t>Ninh Thuận</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>9900</t>
-  </si>
-  <si>
-    <t>3311</t>
-  </si>
-  <si>
-    <t>2393</t>
-  </si>
-  <si>
-    <t>6565</t>
-  </si>
-  <si>
-    <t>51683</t>
-  </si>
-  <si>
-    <t>63929</t>
-  </si>
-  <si>
-    <t>12830</t>
-  </si>
-  <si>
-    <t>67015</t>
-  </si>
-  <si>
-    <t>71219</t>
-  </si>
-  <si>
-    <t>15001</t>
-  </si>
-  <si>
-    <t>35952</t>
-  </si>
-  <si>
-    <t>71560</t>
-  </si>
-  <si>
-    <t>89834</t>
-  </si>
-  <si>
-    <t>11661</t>
-  </si>
-  <si>
-    <t>47619</t>
-  </si>
-  <si>
-    <t>666650</t>
+    <t>754</t>
+  </si>
+  <si>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>5367</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>0842</t>
+  </si>
+  <si>
+    <t>79560</t>
+  </si>
+  <si>
+    <t>93843</t>
+  </si>
+  <si>
+    <t>06072</t>
+  </si>
+  <si>
+    <t>60054</t>
+  </si>
+  <si>
+    <t>09363</t>
+  </si>
+  <si>
+    <t>41980</t>
+  </si>
+  <si>
+    <t>52707</t>
+  </si>
+  <si>
+    <t>07111</t>
+  </si>
+  <si>
+    <t>05574</t>
+  </si>
+  <si>
+    <t>39381</t>
+  </si>
+  <si>
+    <t>73951</t>
+  </si>
+  <si>
+    <t>638738</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>7491</t>
+  </si>
+  <si>
+    <t>7102</t>
+  </si>
+  <si>
+    <t>6555</t>
+  </si>
+  <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>95883</t>
+  </si>
+  <si>
+    <t>24306</t>
+  </si>
+  <si>
+    <t>07618</t>
+  </si>
+  <si>
+    <t>56359</t>
+  </si>
+  <si>
+    <t>03474</t>
+  </si>
+  <si>
+    <t>97868</t>
+  </si>
+  <si>
+    <t>55819</t>
+  </si>
+  <si>
+    <t>58980</t>
+  </si>
+  <si>
+    <t>24589</t>
+  </si>
+  <si>
+    <t>20960</t>
+  </si>
+  <si>
+    <t>07521</t>
+  </si>
+  <si>
+    <t>933338</t>
+  </si>
+  <si>
+    <t>Đắc Nông</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>4305</t>
+  </si>
+  <si>
+    <t>3878</t>
+  </si>
+  <si>
+    <t>9968</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>90762</t>
+  </si>
+  <si>
+    <t>09813</t>
+  </si>
+  <si>
+    <t>26130</t>
+  </si>
+  <si>
+    <t>19466</t>
+  </si>
+  <si>
+    <t>21678</t>
+  </si>
+  <si>
+    <t>50975</t>
+  </si>
+  <si>
+    <t>42654</t>
+  </si>
+  <si>
+    <t>42764</t>
+  </si>
+  <si>
+    <t>52979</t>
+  </si>
+  <si>
+    <t>34714</t>
+  </si>
+  <si>
+    <t>69461</t>
+  </si>
+  <si>
+    <t>199333</t>
   </si>
   <si>
     <t>Miền Nam</t>
   </si>
   <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>7039</t>
-  </si>
-  <si>
-    <t>8595</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>3928</t>
-  </si>
-  <si>
-    <t>20318</t>
-  </si>
-  <si>
-    <t>50742</t>
-  </si>
-  <si>
-    <t>79396</t>
-  </si>
-  <si>
-    <t>27060</t>
-  </si>
-  <si>
-    <t>60981</t>
-  </si>
-  <si>
-    <t>57194</t>
-  </si>
-  <si>
-    <t>34012</t>
-  </si>
-  <si>
-    <t>92617</t>
-  </si>
-  <si>
-    <t>27285</t>
-  </si>
-  <si>
-    <t>49030</t>
-  </si>
-  <si>
-    <t>83236</t>
-  </si>
-  <si>
-    <t>704221</t>
-  </si>
-  <si>
-    <t>Bình Dương</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>4595</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>6589</t>
-  </si>
-  <si>
-    <t>5879</t>
-  </si>
-  <si>
-    <t>35055</t>
-  </si>
-  <si>
-    <t>69916</t>
-  </si>
-  <si>
-    <t>74626</t>
-  </si>
-  <si>
-    <t>03107</t>
-  </si>
-  <si>
-    <t>99796</t>
-  </si>
-  <si>
-    <t>91359</t>
-  </si>
-  <si>
-    <t>81766</t>
-  </si>
-  <si>
-    <t>10348</t>
-  </si>
-  <si>
-    <t>47427</t>
-  </si>
-  <si>
-    <t>39938</t>
-  </si>
-  <si>
-    <t>18136</t>
-  </si>
-  <si>
-    <t>336737</t>
-  </si>
-  <si>
-    <t>Trà Vinh</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>7867</t>
-  </si>
-  <si>
-    <t>3568</t>
-  </si>
-  <si>
-    <t>4837</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>74075</t>
-  </si>
-  <si>
-    <t>44245</t>
-  </si>
-  <si>
-    <t>72552</t>
-  </si>
-  <si>
-    <t>48576</t>
-  </si>
-  <si>
-    <t>87402</t>
-  </si>
-  <si>
-    <t>52975</t>
-  </si>
-  <si>
-    <t>83322</t>
-  </si>
-  <si>
-    <t>96093</t>
-  </si>
-  <si>
-    <t>71991</t>
-  </si>
-  <si>
-    <t>88266</t>
-  </si>
-  <si>
-    <t>00574</t>
-  </si>
-  <si>
-    <t>946934</t>
+    <t>TP.HCM</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>2117</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>9867</t>
+  </si>
+  <si>
+    <t>4264</t>
+  </si>
+  <si>
+    <t>97157</t>
+  </si>
+  <si>
+    <t>55260</t>
+  </si>
+  <si>
+    <t>34998</t>
+  </si>
+  <si>
+    <t>67471</t>
+  </si>
+  <si>
+    <t>22710</t>
+  </si>
+  <si>
+    <t>66254</t>
+  </si>
+  <si>
+    <t>87152</t>
+  </si>
+  <si>
+    <t>59493</t>
+  </si>
+  <si>
+    <t>96484</t>
+  </si>
+  <si>
+    <t>02453</t>
+  </si>
+  <si>
+    <t>19957</t>
+  </si>
+  <si>
+    <t>827568</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>8853</t>
+  </si>
+  <si>
+    <t>3706</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>0720</t>
+  </si>
+  <si>
+    <t>48278</t>
+  </si>
+  <si>
+    <t>58248</t>
+  </si>
+  <si>
+    <t>83229</t>
+  </si>
+  <si>
+    <t>57682</t>
+  </si>
+  <si>
+    <t>50343</t>
+  </si>
+  <si>
+    <t>13767</t>
+  </si>
+  <si>
+    <t>37131</t>
+  </si>
+  <si>
+    <t>74352</t>
+  </si>
+  <si>
+    <t>15806</t>
+  </si>
+  <si>
+    <t>13355</t>
+  </si>
+  <si>
+    <t>77554</t>
+  </si>
+  <si>
+    <t>018531</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>6608</t>
+  </si>
+  <si>
+    <t>7950</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>5630</t>
+  </si>
+  <si>
+    <t>00195</t>
+  </si>
+  <si>
+    <t>03536</t>
+  </si>
+  <si>
+    <t>39841</t>
+  </si>
+  <si>
+    <t>94486</t>
+  </si>
+  <si>
+    <t>50172</t>
+  </si>
+  <si>
+    <t>05323</t>
+  </si>
+  <si>
+    <t>32517</t>
+  </si>
+  <si>
+    <t>53228</t>
+  </si>
+  <si>
+    <t>66643</t>
+  </si>
+  <si>
+    <t>36796</t>
+  </si>
+  <si>
+    <t>58083</t>
+  </si>
+  <si>
+    <t>063764</t>
+  </si>
+  <si>
+    <t>Hậu Giang</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>6195</t>
+  </si>
+  <si>
+    <t>5350</t>
+  </si>
+  <si>
+    <t>6207</t>
+  </si>
+  <si>
+    <t>4074</t>
+  </si>
+  <si>
+    <t>90496</t>
+  </si>
+  <si>
+    <t>14984</t>
+  </si>
+  <si>
+    <t>26269</t>
+  </si>
+  <si>
+    <t>91479</t>
+  </si>
+  <si>
+    <t>16671</t>
+  </si>
+  <si>
+    <t>48847</t>
+  </si>
+  <si>
+    <t>38755</t>
+  </si>
+  <si>
+    <t>48575</t>
+  </si>
+  <si>
+    <t>30334</t>
+  </si>
+  <si>
+    <t>24694</t>
+  </si>
+  <si>
+    <t>04480</t>
+  </si>
+  <si>
+    <t>913539</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1080,7 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -986,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1003,7 +1114,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1020,7 +1131,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1037,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1054,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1071,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1088,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1105,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1122,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1139,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1156,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1173,7 +1284,7 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1190,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1207,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1224,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1241,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1258,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1269,13 +1380,13 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1286,13 +1397,13 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1303,13 +1414,13 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -1320,13 +1431,13 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -1337,13 +1448,13 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1354,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1371,13 +1482,13 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -1388,13 +1499,13 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -1405,13 +1516,13 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -1422,13 +1533,13 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1439,13 +1550,13 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -1456,13 +1567,13 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -1473,13 +1584,13 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -1490,13 +1601,13 @@
         <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -1507,13 +1618,13 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -1524,13 +1635,13 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -1541,13 +1652,13 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -1558,13 +1669,13 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -1572,16 +1683,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -1589,16 +1700,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -1606,16 +1717,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -1623,16 +1734,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -1640,16 +1751,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -1657,16 +1768,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -1674,16 +1785,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -1691,16 +1802,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -1708,16 +1819,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -1725,16 +1836,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -1742,16 +1853,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -1759,16 +1870,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -1776,16 +1887,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -1793,16 +1904,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -1810,16 +1921,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -1827,16 +1938,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -1844,16 +1955,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -1861,16 +1972,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -1878,16 +1989,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
         <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -1895,16 +2006,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -1912,16 +2023,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -1929,16 +2040,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
         <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -1946,16 +2057,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -1963,16 +2074,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -1980,16 +2091,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -1997,16 +2108,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -2014,16 +2125,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -2031,16 +2142,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -2048,16 +2159,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -2065,16 +2176,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -2082,16 +2193,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -2099,16 +2210,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -2116,16 +2227,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -2133,16 +2244,16 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -2150,16 +2261,16 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -2167,16 +2278,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -2184,16 +2295,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
         <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -2201,16 +2312,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -2218,16 +2329,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
         <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -2235,16 +2346,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
         <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -2252,16 +2363,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -2269,16 +2380,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -2286,16 +2397,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -2303,16 +2414,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2320,16 +2431,16 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -2337,16 +2448,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -2354,16 +2465,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -2371,16 +2482,16 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -2388,16 +2499,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -2405,16 +2516,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -2422,16 +2533,16 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -2439,16 +2550,16 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -2456,16 +2567,16 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -2473,18 +2584,630 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
       </c>
       <c r="D118" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" t="s">
         <v>139</v>
       </c>
-      <c r="E118" t="s">
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>100</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>100</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>100</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
+        <v>158</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>100</v>
+      </c>
+      <c r="B140" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>100</v>
+      </c>
+      <c r="B143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>167</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>100</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>100</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>172</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>100</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>173</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>100</v>
+      </c>
+      <c r="B152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>174</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>100</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>176</v>
+      </c>
+      <c r="E154" t="s">
         <v>9</v>
       </c>
     </row>
